--- a/biology/Médecine/Valve_mitrale/Valve_mitrale.xlsx
+++ b/biology/Médecine/Valve_mitrale/Valve_mitrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La valve mitrale (VM), anciennement appelée valvule mitrale, est la valve cardiaque qui sépare l'atrium gauche du ventricule gauche. La valve mitrale est également appelée valve atrio-ventriculaire gauche.
 C'est une valve anti-retour imposant un sens unique à la circulation du sang.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Vésale compare la forme des deux feuillets valvulaires à une coiffe d’Évêque, la mitre, d'où l'adjectif mitral caractérisant la valve[1]. Dans la nomenclature classique, les valvules du  cœur sont des structures constituées de valves, mais dans la nouvelle nomenclature, qui veut rétablir une certaine logique, c'est la valve qui est composée de plusieurs valvules, aussi appelées cuspides[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Vésale compare la forme des deux feuillets valvulaires à une coiffe d’Évêque, la mitre, d'où l'adjectif mitral caractérisant la valve. Dans la nomenclature classique, les valvules du  cœur sont des structures constituées de valves, mais dans la nouvelle nomenclature, qui veut rétablir une certaine logique, c'est la valve qui est composée de plusieurs valvules, aussi appelées cuspides.
 </t>
         </is>
       </c>
@@ -543,20 +557,13 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appareil mitral est constitué de trois éléments : un anneau, un voile constitué de deux valvules et un appareil sous-valvulaire, composé des cordages et des piliers.
 Lors de la diastole, en position ouverte, la valve mitrale a un aspect d'entonnoir, avec, chez l'être humain, un diamètre de 32 mm au niveau de l'anneau et de 26 mm au niveau du sommet des valves.
 La surface mitrale normale est de 4  à   6 cm2 chez l'humain adulte.
-Anneau mitral
-Les deux valvules mitrales sont fixées sur un anneau fibreux, dont la partie antérieure (le tiers de sa circonférence) correspond à l'insertion de la grande valvule, sous l'anneau aortique et la partie postérieure (les deux tiers de sa circonférence) à l'insertion de la petite valvule. Cette dernière portion est mobile et correspond à la partie pouvant se dilater lors des maladies cardiaques comportant une dilatation du ventricule gauche et celle de l'anneau. Sa forme correspond globalement au contour d'une selle de cheval, les parties les plus éloignées de la pointe du ventricule gauche étant antérieure et postérieure[3].
-Au pourtour de cet anneau sont situées la veine coronaire (sinus coronaire) et l'artère circonflexe (faisant partie des artères coronaires).
-Valvules
-La valve mitrale comporte deux valvules : la grande valvule (ou valvule septale, ou feuillet antérieur) très mobile et la petite valvule (ou valvule pariétale ou feuillet postérieur) servant de butée à la grande valvule pour assurer la coaptation et permettre la continence lors de la contraction (systole) ventriculaire. On distingue deux faces : la face supérieure ou auriculaire (c'est-à-dire, donnant sur l'oreillette gauche) et la face inférieure ou ventriculaire. La valvule postérieure peut comporter plusieurs échancrures ou indentations alors que la valvule antérieure est habituellement d'un seul tenant[4].
-Les lieux où les deux feuillets se rejoignent s'appellent des commissures.
-Appareil sous-valvulaire
-Il est constitué de deux piliers musculaires et de cordages. 
-Les cordages, constitués de tissus élastiques (non musculaire) relient le sommet des piliers aux 2 valvules. Les cordages primaires s’insèrent sur le bord libre des valvules et les cordages secondaires sur la face inférieure (ou ventriculaire) des valvules[5]. Les piliers sont également appelés « muscles papillaires ». Leur insertion est variable ainsi que le nombre de cordages s'y attachant[6].
 </t>
         </is>
       </c>
@@ -582,10 +589,126 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anneau mitral</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux valvules mitrales sont fixées sur un anneau fibreux, dont la partie antérieure (le tiers de sa circonférence) correspond à l'insertion de la grande valvule, sous l'anneau aortique et la partie postérieure (les deux tiers de sa circonférence) à l'insertion de la petite valvule. Cette dernière portion est mobile et correspond à la partie pouvant se dilater lors des maladies cardiaques comportant une dilatation du ventricule gauche et celle de l'anneau. Sa forme correspond globalement au contour d'une selle de cheval, les parties les plus éloignées de la pointe du ventricule gauche étant antérieure et postérieure.
+Au pourtour de cet anneau sont situées la veine coronaire (sinus coronaire) et l'artère circonflexe (faisant partie des artères coronaires).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Valvules</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La valve mitrale comporte deux valvules : la grande valvule (ou valvule septale, ou feuillet antérieur) très mobile et la petite valvule (ou valvule pariétale ou feuillet postérieur) servant de butée à la grande valvule pour assurer la coaptation et permettre la continence lors de la contraction (systole) ventriculaire. On distingue deux faces : la face supérieure ou auriculaire (c'est-à-dire, donnant sur l'oreillette gauche) et la face inférieure ou ventriculaire. La valvule postérieure peut comporter plusieurs échancrures ou indentations alors que la valvule antérieure est habituellement d'un seul tenant.
+Les lieux où les deux feuillets se rejoignent s'appellent des commissures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Appareil sous-valvulaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est constitué de deux piliers musculaires et de cordages. 
+Les cordages, constitués de tissus élastiques (non musculaire) relient le sommet des piliers aux 2 valvules. Les cordages primaires s’insèrent sur le bord libre des valvules et les cordages secondaires sur la face inférieure (ou ventriculaire) des valvules. Les piliers sont également appelés « muscles papillaires ». Leur insertion est variable ainsi que le nombre de cordages s'y attachant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La diastole (ou relâchement, par opposition à la systole : contraction) ventriculaire est séparée en trois phases suivant la variation de son volume : successivement, on a une courte phase de relaxation isovolumétrique (ventricule de volume constant et minimal), une phase de remplissage passive du ventricule et une phase de remplissage active par contraction des oreillettes.
 Pendant la phase de relaxation isovolumique, les valves aortique et mitrale sont fermées : la pression dans le ventricule chute rapidement. Dès que cette pression devient inférieure à la pression auriculaire, la valve mitrale s'ouvre. Le ventricule se remplit alors rapidement alors que l'oreillette est au repos (remplissage ventriculaire passif lors de la diastole), puis le remplissage ralentit et enfin survient la contraction (systole) auriculaire (remplissage actif).
@@ -594,31 +717,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Valve_mitrale</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Valve_mitrale</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Rôles de la valve mitrale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La valve mitrale a deux rôles bien distincts :
 Elle assure la perméabilité et la continence entre l'oreillette gauche et le ventricule gauche lors des différents mouvements de la révolution cardiaque (systole et diastole) ;
@@ -630,31 +755,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Valve_mitrale</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Valve_mitrale</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Techniques d'exploration</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>La valve mitrale est une structure fine et mobile et demandant par conséquent une définition spatio-temporelle importante pour bien être analysée.
 La radiographie du thorax ne permet pas de visualiser les valves sauf si elles sont calcifiées. Elle permet de voir le retentissement d'une atteinte valvulaire sur la taille des cavités cardiaques (modification de la taille du cœur ou de ses contours).
@@ -665,35 +792,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Valve_mitrale</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Valve_mitrale</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valve_mitrale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Congénitales
-Acquises
-La valve mitrale est à l'origine de certaines maladies (les valvulopathies mitrales) lorsqu'elle n'assure plus ses différentes fonctions.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acquises</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La valve mitrale est à l'origine de certaines maladies (les valvulopathies mitrales) lorsqu'elle n'assure plus ses différentes fonctions.
 Le rétrécissement mitral, secondaire à un rhumatisme articulaire aigu, est une maladie devenue rare. Il est défini par une surface mitrale inférieure à 2 cm2, à partir de laquelle apparaissent des modifications hémodynamiques. Il crée ainsi un barrage au remplissage du ventricule gauche.
 L'insuffisance mitrale est une atteinte beaucoup plus fréquente et a de nombreuses causes dont le prolapsus de la valve mitrale.</t>
         </is>
